--- a/Team-Data/2014-15/3-19-2014-15.xlsx
+++ b/Team-Data/2014-15/3-19-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -780,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
         <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -971,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1129,7 +1196,7 @@
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1144,7 +1211,7 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>23</v>
@@ -1156,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1323,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1484,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1508,13 +1575,13 @@
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
@@ -1526,22 +1593,22 @@
         <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1693,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1717,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
         <v>44</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.647</v>
+        <v>0.638</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,19 +1843,19 @@
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.462</v>
       </c>
       <c r="L8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
         <v>16.6</v>
@@ -1797,19 +1864,19 @@
         <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V8" t="n">
         <v>12.8</v>
@@ -1833,10 +1900,10 @@
         <v>104.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1872,19 +1939,19 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT8" t="n">
         <v>23</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>22</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -1940,52 +2007,52 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J9" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K9" t="n">
         <v>0.43</v>
       </c>
       <c r="L9" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M9" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="R9" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T9" t="n">
         <v>44.8</v>
@@ -2003,22 +2070,22 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
         <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,16 +2097,16 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2078,10 +2145,10 @@
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2266,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -2501,13 +2568,13 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
         <v>11.5</v>
@@ -2516,28 +2583,28 @@
         <v>33.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
         <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
         <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V12" t="n">
         <v>16.7</v>
@@ -2546,25 +2613,25 @@
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2582,7 +2649,7 @@
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2612,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>10</v>
@@ -2630,13 +2697,13 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
         <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
         <v>18</v>
@@ -2785,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2821,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2970,7 +3037,7 @@
         <v>28</v>
       </c>
       <c r="AR14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -3047,13 +3114,13 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
         <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
@@ -3065,22 +3132,22 @@
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U15" t="n">
         <v>20.9</v>
@@ -3095,28 +3162,28 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3131,7 +3198,7 @@
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -3146,16 +3213,16 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>9</v>
@@ -3167,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3176,13 +3243,13 @@
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>10</v>
@@ -3328,7 +3395,7 @@
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>4</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3355,7 +3422,7 @@
         <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3364,7 +3431,7 @@
         <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3486,7 +3553,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3513,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3546,7 +3613,7 @@
         <v>8</v>
       </c>
       <c r="BB17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3722,7 +3789,7 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
         <v>20</v>
@@ -3731,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -3760,19 +3827,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="n">
         <v>53</v>
       </c>
       <c r="G19" t="n">
-        <v>0.221</v>
+        <v>0.209</v>
       </c>
       <c r="H19" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I19" t="n">
         <v>36.7</v>
@@ -3781,37 +3848,37 @@
         <v>84.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>4.9</v>
       </c>
       <c r="M19" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="O19" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P19" t="n">
         <v>25.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T19" t="n">
         <v>41.9</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
         <v>15</v>
@@ -3820,25 +3887,25 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y19" t="n">
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA19" t="n">
         <v>21.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,16 +3917,16 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3868,13 +3935,13 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP19" t="n">
         <v>3</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>2</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3889,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV19" t="n">
         <v>23</v>
@@ -3907,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -3945,25 +4012,25 @@
         <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>0.537</v>
+        <v>0.552</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3975,34 +4042,34 @@
         <v>0.36</v>
       </c>
       <c r="O20" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
@@ -4011,22 +4078,22 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
@@ -4044,7 +4111,7 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
@@ -4053,25 +4120,25 @@
         <v>9</v>
       </c>
       <c r="AO20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP20" t="n">
         <v>18</v>
       </c>
-      <c r="AP20" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU20" t="n">
         <v>10</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -4124,43 +4191,43 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" t="n">
-        <v>0.206</v>
+        <v>0.209</v>
       </c>
       <c r="H21" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L21" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M21" t="n">
         <v>19.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O21" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P21" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="Q21" t="n">
         <v>0.763</v>
@@ -4169,16 +4236,16 @@
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
         <v>21.4</v>
       </c>
       <c r="V21" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4193,37 +4260,37 @@
         <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
         <v>92.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>22</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4244,7 +4311,7 @@
         <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4268,10 +4335,10 @@
         <v>8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4423,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4438,10 +4505,10 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
         <v>6</v>
@@ -4456,7 +4523,7 @@
         <v>14</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="n">
-        <v>0.304</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4509,13 +4576,13 @@
         <v>82.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N23" t="n">
         <v>0.354</v>
@@ -4527,19 +4594,19 @@
         <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R23" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4548,25 +4615,25 @@
         <v>7.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,7 +4645,7 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>16</v>
@@ -4587,10 +4654,10 @@
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4605,34 +4672,34 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>12</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
         <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.522</v>
+        <v>0.515</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="J25" t="n">
         <v>86.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L25" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M25" t="n">
         <v>25.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O25" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P25" t="n">
         <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R25" t="n">
         <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="T25" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U25" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V25" t="n">
         <v>15.2</v>
@@ -4912,28 +4979,28 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.1</v>
+        <v>104.6</v>
       </c>
       <c r="AC25" t="n">
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4948,40 +5015,40 @@
         <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
@@ -4990,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5002,7 +5069,7 @@
         <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,7 +5248,7 @@
         <v>2</v>
       </c>
       <c r="BA26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,7 +5403,7 @@
         <v>5</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
@@ -5357,10 +5424,10 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="n">
         <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>0.621</v>
+        <v>0.627</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,49 +5483,49 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
@@ -5476,13 +5543,13 @@
         <v>4.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5506,7 +5573,7 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5521,7 +5588,7 @@
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5688,10 +5755,10 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP29" t="n">
         <v>5</v>
@@ -5730,7 +5797,7 @@
         <v>13</v>
       </c>
       <c r="BB29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
         <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>0.456</v>
+        <v>0.448</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J30" t="n">
-        <v>78.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.449</v>
@@ -5789,7 +5856,7 @@
         <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N30" t="n">
         <v>0.346</v>
@@ -5798,19 +5865,19 @@
         <v>16.7</v>
       </c>
       <c r="P30" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S30" t="n">
         <v>32</v>
       </c>
       <c r="T30" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U30" t="n">
         <v>20.1</v>
@@ -5819,7 +5886,7 @@
         <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X30" t="n">
         <v>6</v>
@@ -5831,19 +5898,19 @@
         <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5855,13 +5922,13 @@
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5870,22 +5937,22 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>12</v>
@@ -5897,25 +5964,25 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
         <v>7</v>
       </c>
       <c r="BA30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6061,13 +6128,13 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>20</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>11</v>
@@ -6079,7 +6146,7 @@
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-19-2014-15</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
